--- a/documents/Sprint.xlsx
+++ b/documents/Sprint.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3009393F-7644-AF4C-9500-30A350ABC52D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E961379-84AD-41E3-90BF-50E8CA227CFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="25460" windowHeight="14480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint Backlog" sheetId="5" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog'!$B$2:$AU$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Agile Sprint Backlog'!$B$2:$AU$58</definedName>
+    <definedName name="Status">'[1]Agile Product Backlog'!$Q$6:$Q$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
   <si>
     <t>BACKLOG TASK &amp; ID</t>
   </si>
@@ -88,9 +92,6 @@
   </si>
   <si>
     <t>Sprint #6</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>DAY 6</t>
@@ -274,6 +275,36 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>Implement Voice Commands &amp; Air Quality Functionality.</t>
+  </si>
+  <si>
+    <t>Weather API Implementation.</t>
+  </si>
+  <si>
+    <t>Binary File Functionality Algorithm.</t>
+  </si>
+  <si>
+    <t>Implement Android Pages That Need To Be Implemented.</t>
+  </si>
+  <si>
+    <t>Implement Settings Page Functionality.</t>
+  </si>
+  <si>
+    <t>Implement Arduino HTTP Connection.</t>
+  </si>
+  <si>
+    <t>Implement Motion Sensor On Node MCU &amp; Fan Control.</t>
+  </si>
+  <si>
+    <t>Finalise Poster &amp; Abstract</t>
+  </si>
+  <si>
+    <t>Begin Corpus &amp; Technical Manual</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -465,6 +496,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -473,9 +507,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -503,7 +534,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2913,6 +2944,24 @@
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
                 <c:pt idx="29">
                   <c:v>50</c:v>
                 </c:pt>
@@ -3015,6 +3064,24 @@
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
                 <c:pt idx="29">
                   <c:v>50</c:v>
                 </c:pt>
@@ -3414,6 +3481,24 @@
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
                 <c:pt idx="29">
                   <c:v>50</c:v>
                 </c:pt>
@@ -3516,6 +3601,24 @@
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
                 <c:pt idx="29">
                   <c:v>50</c:v>
                 </c:pt>
@@ -3617,6 +3720,24 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>50</c:v>
@@ -3837,6 +3958,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3906,6 +4030,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
+                <c:pt idx="29">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3921,7 +4048,7 @@
           <c:order val="33"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$38</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -3971,10 +4098,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$38:$AK$38</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$43:$AK$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3990,7 +4120,7 @@
           <c:order val="34"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$39</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4040,10 +4170,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$39:$AK$39</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$44:$AK$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
+                <c:pt idx="29">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4059,7 +4192,7 @@
           <c:order val="35"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$40</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4109,7 +4242,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$40:$AK$40</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$45:$AK$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4128,7 +4261,7 @@
           <c:order val="36"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$41</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4178,7 +4311,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$41:$AK$41</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$46:$AK$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4197,7 +4330,7 @@
           <c:order val="37"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$42</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4247,7 +4380,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$42:$AK$42</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$47:$AK$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4266,7 +4399,7 @@
           <c:order val="38"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$43</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4316,7 +4449,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$43:$AK$43</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$48:$AK$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4335,7 +4468,7 @@
           <c:order val="39"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$44</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4385,7 +4518,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$44:$AK$44</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$49:$AK$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4404,7 +4537,7 @@
           <c:order val="40"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$45</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4454,7 +4587,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$45:$AK$45</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$50:$AK$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4473,7 +4606,7 @@
           <c:order val="41"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$46</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4523,7 +4656,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$46:$AK$46</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$51:$AK$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4542,7 +4675,7 @@
           <c:order val="42"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$47</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4592,7 +4725,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$47:$AK$47</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$52:$AK$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4611,7 +4744,7 @@
           <c:order val="43"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$48</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4661,7 +4794,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$48:$AK$48</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$53:$AK$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4680,7 +4813,7 @@
           <c:order val="44"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$49</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4730,7 +4863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$49:$AK$49</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$54:$AK$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4749,7 +4882,7 @@
           <c:order val="45"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Agile Sprint Backlog'!$G$50</c:f>
+              <c:f>'Agile Sprint Backlog'!$G$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4802,7 +4935,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Agile Sprint Backlog'!$H$50:$AK$50</c:f>
+              <c:f>'Agile Sprint Backlog'!$H$55:$AK$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -4834,40 +4967,40 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3</c:v>
@@ -4876,7 +5009,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2</c:v>
@@ -4885,7 +5018,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2</c:v>
@@ -4894,7 +5027,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>558</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5015,7 +5148,7 @@
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>431800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5044,6 +5177,35 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Agile Product Backlog"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="Q6" t="str">
+            <v>Complete</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Q7" t="str">
+            <v>In Progress</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="Q8" t="str">
+            <v>Not Started</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5372,14 +5534,14 @@
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BA141"/>
+  <dimension ref="B1:BA146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH28" sqref="AH28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AF1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH40" sqref="AH40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="3" customWidth="1"/>
@@ -5397,55 +5559,55 @@
     <col min="49" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:53" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
+    <row r="1" spans="2:53" ht="50" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="B1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
       <c r="AV1" s="4"/>
       <c r="AW1" s="4"/>
       <c r="AX1" s="4"/>
@@ -5453,7 +5615,7 @@
       <c r="AZ1" s="4"/>
       <c r="BA1" s="4"/>
     </row>
-    <row r="2" spans="2:53" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:53" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -5484,80 +5646,80 @@
       <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="S2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="V2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="W2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="X2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="Y2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Z2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AA2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AB2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AC2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AD2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="14" t="s">
+      <c r="AE2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AF2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AG2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AH2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AI2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="AJ2" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="AK2" s="6" t="s">
         <v>10</v>
@@ -5579,7 +5741,7 @@
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
     </row>
-    <row r="3" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
@@ -5635,18 +5797,18 @@
       <c r="AZ3" s="4"/>
       <c r="BA3" s="4"/>
     </row>
-    <row r="4" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="9">
         <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="9">
         <v>10</v>
@@ -5721,18 +5883,18 @@
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4"/>
     </row>
-    <row r="5" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="9">
         <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="9">
         <v>5</v>
@@ -5797,18 +5959,18 @@
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
     </row>
-    <row r="6" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="9">
         <v>20</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="9">
         <v>20</v>
@@ -5903,18 +6065,18 @@
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4"/>
     </row>
-    <row r="7" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9">
         <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="9">
         <v>20</v>
@@ -6009,18 +6171,18 @@
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4"/>
     </row>
-    <row r="8" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="9">
         <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="9">
         <v>20</v>
@@ -6115,18 +6277,18 @@
       <c r="AZ8" s="4"/>
       <c r="BA8" s="4"/>
     </row>
-    <row r="9" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="9">
         <v>10</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="9">
         <v>10</v>
@@ -6201,18 +6363,18 @@
       <c r="AZ9" s="4"/>
       <c r="BA9" s="4"/>
     </row>
-    <row r="10" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="9">
         <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="9">
         <v>30</v>
@@ -6327,18 +6489,18 @@
       <c r="AZ10" s="4"/>
       <c r="BA10" s="4"/>
     </row>
-    <row r="11" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9">
         <v>3</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="9">
         <v>3</v>
@@ -6395,18 +6557,18 @@
       <c r="AZ11" s="4"/>
       <c r="BA11" s="4"/>
     </row>
-    <row r="12" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="9">
         <v>10</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="9">
         <v>10</v>
@@ -6481,18 +6643,18 @@
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4"/>
     </row>
-    <row r="13" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="9">
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="9">
         <v>3</v>
@@ -6553,7 +6715,7 @@
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4"/>
     </row>
-    <row r="14" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
@@ -6609,18 +6771,18 @@
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
     </row>
-    <row r="15" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="9">
         <v>30</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="9">
         <v>30</v>
@@ -6735,18 +6897,18 @@
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
     </row>
-    <row r="16" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="9">
         <v>10</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="9">
         <v>10</v>
@@ -6821,18 +6983,18 @@
       <c r="AZ16" s="4"/>
       <c r="BA16" s="4"/>
     </row>
-    <row r="17" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="9">
         <v>15</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="9">
         <v>15</v>
@@ -6917,18 +7079,18 @@
       <c r="AZ17" s="4"/>
       <c r="BA17" s="4"/>
     </row>
-    <row r="18" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="9">
         <v>5</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="9">
         <v>5</v>
@@ -6993,18 +7155,18 @@
       <c r="AZ18" s="4"/>
       <c r="BA18" s="4"/>
     </row>
-    <row r="19" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="9">
         <v>10</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="9">
         <v>10</v>
@@ -7079,18 +7241,18 @@
       <c r="AZ19" s="4"/>
       <c r="BA19" s="4"/>
     </row>
-    <row r="20" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="9">
         <v>10</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="9">
         <v>10</v>
@@ -7165,18 +7327,18 @@
       <c r="AZ20" s="4"/>
       <c r="BA20" s="4"/>
     </row>
-    <row r="21" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="9">
         <v>30</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" s="9">
         <v>30</v>
@@ -7277,18 +7439,18 @@
       <c r="AZ21" s="4"/>
       <c r="BA21" s="4"/>
     </row>
-    <row r="22" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="9">
         <v>15</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="9">
         <v>15</v>
@@ -7373,18 +7535,18 @@
       <c r="AZ22" s="4"/>
       <c r="BA22" s="4"/>
     </row>
-    <row r="23" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="9">
         <v>15</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" s="9">
         <v>15</v>
@@ -7469,18 +7631,18 @@
       <c r="AZ23" s="4"/>
       <c r="BA23" s="4"/>
     </row>
-    <row r="24" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="9">
         <v>5</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" s="9">
         <v>5</v>
@@ -7543,7 +7705,7 @@
       <c r="AZ24" s="4"/>
       <c r="BA24" s="4"/>
     </row>
-    <row r="25" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>12</v>
       </c>
@@ -7599,18 +7761,18 @@
       <c r="AZ25" s="4"/>
       <c r="BA25" s="4"/>
     </row>
-    <row r="26" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="9">
         <v>50</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F26" s="9">
         <v>50</v>
@@ -7645,24 +7807,36 @@
       <c r="P26" s="9">
         <v>2</v>
       </c>
-      <c r="Q26" s="9"/>
+      <c r="Q26" s="9">
+        <v>5</v>
+      </c>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
+      <c r="V26" s="9">
+        <v>5</v>
+      </c>
       <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
+      <c r="X26" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>5</v>
+      </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
+      <c r="AE26" s="9">
+        <v>5</v>
+      </c>
       <c r="AF26" s="9"/>
       <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
+      <c r="AH26" s="9">
+        <v>5</v>
+      </c>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9">
@@ -7685,18 +7859,18 @@
       <c r="AZ26" s="4"/>
       <c r="BA26" s="4"/>
     </row>
-    <row r="27" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="9">
         <v>50</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F27" s="9">
         <v>50</v>
@@ -7732,15 +7906,27 @@
         <v>2</v>
       </c>
       <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
+      <c r="R27" s="9">
+        <v>5</v>
+      </c>
+      <c r="S27" s="9">
+        <v>5</v>
+      </c>
+      <c r="T27" s="9">
+        <v>5</v>
+      </c>
+      <c r="U27" s="9">
+        <v>5</v>
+      </c>
       <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
+      <c r="W27" s="9">
+        <v>5</v>
+      </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
+      <c r="Z27" s="9">
+        <v>5</v>
+      </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
@@ -7771,18 +7957,18 @@
       <c r="AZ27" s="4"/>
       <c r="BA27" s="4"/>
     </row>
-    <row r="28" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="9">
         <v>10</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F28" s="9">
         <v>10</v>
@@ -7857,18 +8043,18 @@
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
     </row>
-    <row r="29" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" s="9">
         <v>10</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F29" s="9">
         <v>10</v>
@@ -7943,18 +8129,18 @@
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
     </row>
-    <row r="30" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="9">
         <v>10</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F30" s="9">
         <v>10</v>
@@ -8023,18 +8209,18 @@
       <c r="AZ30" s="4"/>
       <c r="BA30" s="4"/>
     </row>
-    <row r="31" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="9">
         <v>50</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F31" s="9">
         <v>50</v>
@@ -8070,17 +8256,29 @@
         <v>2</v>
       </c>
       <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
+      <c r="R31" s="9">
+        <v>5</v>
+      </c>
       <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
+      <c r="T31" s="9">
+        <v>5</v>
+      </c>
       <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
+      <c r="V31" s="9">
+        <v>5</v>
+      </c>
       <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
+      <c r="X31" s="9">
+        <v>5</v>
+      </c>
       <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
+      <c r="Z31" s="9">
+        <v>5</v>
+      </c>
       <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
+      <c r="AB31" s="9">
+        <v>5</v>
+      </c>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
@@ -8109,18 +8307,18 @@
       <c r="AZ31" s="4"/>
       <c r="BA31" s="4"/>
     </row>
-    <row r="32" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="9">
         <v>50</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F32" s="9">
         <v>50</v>
@@ -8155,17 +8353,29 @@
       <c r="P32" s="9">
         <v>2</v>
       </c>
-      <c r="Q32" s="9"/>
+      <c r="Q32" s="9">
+        <v>5</v>
+      </c>
       <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
+      <c r="S32" s="9">
+        <v>5</v>
+      </c>
       <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
+      <c r="U32" s="9">
+        <v>5</v>
+      </c>
       <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
+      <c r="W32" s="9">
+        <v>5</v>
+      </c>
       <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
+      <c r="Y32" s="9">
+        <v>5</v>
+      </c>
       <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="9">
+        <v>5</v>
+      </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
@@ -8195,18 +8405,18 @@
       <c r="AZ32" s="4"/>
       <c r="BA32" s="4"/>
     </row>
-    <row r="33" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="9">
         <v>50</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F33" s="9">
         <v>50</v>
@@ -8241,17 +8451,29 @@
       <c r="P33" s="9">
         <v>2</v>
       </c>
-      <c r="Q33" s="9"/>
+      <c r="Q33" s="9">
+        <v>5</v>
+      </c>
       <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
+      <c r="S33" s="9">
+        <v>5</v>
+      </c>
       <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
+      <c r="U33" s="9">
+        <v>5</v>
+      </c>
       <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
+      <c r="W33" s="9">
+        <v>5</v>
+      </c>
       <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
+      <c r="Y33" s="9">
+        <v>5</v>
+      </c>
       <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
+      <c r="AA33" s="9">
+        <v>5</v>
+      </c>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
@@ -8281,18 +8503,18 @@
       <c r="AZ33" s="4"/>
       <c r="BA33" s="4"/>
     </row>
-    <row r="34" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="9">
         <v>2</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F34" s="9">
         <v>2</v>
@@ -8351,7 +8573,7 @@
       <c r="AZ34" s="4"/>
       <c r="BA34" s="4"/>
     </row>
-    <row r="35" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>15</v>
       </c>
@@ -8407,11 +8629,19 @@
       <c r="AZ35" s="4"/>
       <c r="BA35" s="4"/>
     </row>
-    <row r="36" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+    <row r="36" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="9">
+        <v>20</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -8443,7 +8673,9 @@
       <c r="AH36" s="9"/>
       <c r="AI36" s="9"/>
       <c r="AJ36" s="9"/>
-      <c r="AK36" s="9"/>
+      <c r="AK36" s="9">
+        <v>20</v>
+      </c>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
       <c r="AN36" s="4"/>
@@ -8461,11 +8693,19 @@
       <c r="AZ36" s="4"/>
       <c r="BA36" s="4"/>
     </row>
-    <row r="37" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+    <row r="37" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="9">
+        <v>50</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -8497,7 +8737,9 @@
       <c r="AH37" s="9"/>
       <c r="AI37" s="9"/>
       <c r="AJ37" s="9"/>
-      <c r="AK37" s="9"/>
+      <c r="AK37" s="9">
+        <v>50</v>
+      </c>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
       <c r="AN37" s="4"/>
@@ -8515,11 +8757,19 @@
       <c r="AZ37" s="4"/>
       <c r="BA37" s="4"/>
     </row>
-    <row r="38" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+    <row r="38" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="9">
+        <v>5</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -8551,7 +8801,9 @@
       <c r="AH38" s="9"/>
       <c r="AI38" s="9"/>
       <c r="AJ38" s="9"/>
-      <c r="AK38" s="9"/>
+      <c r="AK38" s="9">
+        <v>5</v>
+      </c>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
@@ -8569,11 +8821,19 @@
       <c r="AZ38" s="4"/>
       <c r="BA38" s="4"/>
     </row>
-    <row r="39" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+    <row r="39" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="9">
+        <v>20</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -8605,7 +8865,9 @@
       <c r="AH39" s="9"/>
       <c r="AI39" s="9"/>
       <c r="AJ39" s="9"/>
-      <c r="AK39" s="9"/>
+      <c r="AK39" s="9">
+        <v>20</v>
+      </c>
       <c r="AL39" s="4"/>
       <c r="AM39" s="4"/>
       <c r="AN39" s="4"/>
@@ -8623,45 +8885,53 @@
       <c r="AZ39" s="4"/>
       <c r="BA39" s="4"/>
     </row>
-    <row r="40" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
+    <row r="40" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="9">
+        <v>10</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="9">
+        <v>10</v>
+      </c>
       <c r="AL40" s="4"/>
       <c r="AM40" s="4"/>
       <c r="AN40" s="4"/>
@@ -8679,11 +8949,19 @@
       <c r="AZ40" s="4"/>
       <c r="BA40" s="4"/>
     </row>
-    <row r="41" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+    <row r="41" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="9">
+        <v>30</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -8715,7 +8993,9 @@
       <c r="AH41" s="9"/>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="9"/>
-      <c r="AK41" s="9"/>
+      <c r="AK41" s="9">
+        <v>30</v>
+      </c>
       <c r="AL41" s="4"/>
       <c r="AM41" s="4"/>
       <c r="AN41" s="4"/>
@@ -8733,11 +9013,19 @@
       <c r="AZ41" s="4"/>
       <c r="BA41" s="4"/>
     </row>
-    <row r="42" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+    <row r="42" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9">
+        <v>50</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -8769,7 +9057,9 @@
       <c r="AH42" s="9"/>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="9"/>
-      <c r="AK42" s="9"/>
+      <c r="AK42" s="9">
+        <v>50</v>
+      </c>
       <c r="AL42" s="4"/>
       <c r="AM42" s="4"/>
       <c r="AN42" s="4"/>
@@ -8787,11 +9077,19 @@
       <c r="AZ42" s="4"/>
       <c r="BA42" s="4"/>
     </row>
-    <row r="43" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+    <row r="43" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="9">
+        <v>15</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -8823,7 +9121,9 @@
       <c r="AH43" s="9"/>
       <c r="AI43" s="9"/>
       <c r="AJ43" s="9"/>
-      <c r="AK43" s="9"/>
+      <c r="AK43" s="9">
+        <v>15</v>
+      </c>
       <c r="AL43" s="4"/>
       <c r="AM43" s="4"/>
       <c r="AN43" s="4"/>
@@ -8841,11 +9141,19 @@
       <c r="AZ43" s="4"/>
       <c r="BA43" s="4"/>
     </row>
-    <row r="44" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+    <row r="44" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="9">
+        <v>50</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -8877,7 +9185,9 @@
       <c r="AH44" s="9"/>
       <c r="AI44" s="9"/>
       <c r="AJ44" s="9"/>
-      <c r="AK44" s="9"/>
+      <c r="AK44" s="9">
+        <v>50</v>
+      </c>
       <c r="AL44" s="4"/>
       <c r="AM44" s="4"/>
       <c r="AN44" s="4"/>
@@ -8895,9 +9205,9 @@
       <c r="AZ44" s="4"/>
       <c r="BA44" s="4"/>
     </row>
-    <row r="45" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
@@ -8951,7 +9261,7 @@
       <c r="AZ45" s="4"/>
       <c r="BA45" s="4"/>
     </row>
-    <row r="46" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -9005,7 +9315,7 @@
       <c r="AZ46" s="4"/>
       <c r="BA46" s="4"/>
     </row>
-    <row r="47" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -9059,7 +9369,7 @@
       <c r="AZ47" s="4"/>
       <c r="BA47" s="4"/>
     </row>
-    <row r="48" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -9113,7 +9423,7 @@
       <c r="AZ48" s="4"/>
       <c r="BA48" s="4"/>
     </row>
-    <row r="49" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -9167,141 +9477,45 @@
       <c r="AZ49" s="4"/>
       <c r="BA49" s="4"/>
     </row>
-    <row r="50" spans="2:53" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5">
-        <f>SUM(F3:F49)</f>
-        <v>558</v>
-      </c>
-      <c r="G50" s="5">
-        <f>SUM(G4:G49)</f>
-        <v>37</v>
-      </c>
-      <c r="H50" s="5">
-        <f>SUM(H3:H49)</f>
-        <v>35</v>
-      </c>
-      <c r="I50" s="5">
-        <f>SUM(I3:I49)</f>
-        <v>33</v>
-      </c>
-      <c r="J50" s="5">
-        <f>SUM(J3:J49)</f>
-        <v>32</v>
-      </c>
-      <c r="K50" s="5">
-        <f>SUM(K3:K49)</f>
-        <v>32</v>
-      </c>
-      <c r="L50" s="5">
-        <f>SUM(L3:L49)</f>
-        <v>30</v>
-      </c>
-      <c r="M50" s="5">
-        <f>SUM(M3:M49)</f>
-        <v>30</v>
-      </c>
-      <c r="N50" s="5">
-        <f>SUM(N3:N49)</f>
-        <v>27</v>
-      </c>
-      <c r="O50" s="5">
-        <f t="shared" ref="O50:T50" si="0">SUM(O3:O49)</f>
-        <v>27</v>
-      </c>
-      <c r="P50" s="5">
-        <f>SUM(P3:P49)</f>
-        <v>27</v>
-      </c>
-      <c r="Q50" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="R50" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="S50" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="T50" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U50" s="5">
-        <f t="shared" ref="U50" si="1">SUM(U3:U49)</f>
-        <v>9</v>
-      </c>
-      <c r="V50" s="5">
-        <f t="shared" ref="V50" si="2">SUM(V3:V49)</f>
-        <v>6</v>
-      </c>
-      <c r="W50" s="5">
-        <f t="shared" ref="W50" si="3">SUM(W3:W49)</f>
-        <v>6</v>
-      </c>
-      <c r="X50" s="5">
-        <f t="shared" ref="X50" si="4">SUM(X3:X49)</f>
-        <v>6</v>
-      </c>
-      <c r="Y50" s="5">
-        <f t="shared" ref="Y50:Z50" si="5">SUM(Y3:Y49)</f>
-        <v>6</v>
-      </c>
-      <c r="Z50" s="5">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="AA50" s="5">
-        <f t="shared" ref="AA50" si="6">SUM(AA3:AA49)</f>
-        <v>3</v>
-      </c>
-      <c r="AB50" s="5">
-        <f>SUM(AB3:AB49)</f>
-        <v>3</v>
-      </c>
-      <c r="AC50" s="5">
-        <f t="shared" ref="AC50" si="7">SUM(AC3:AC49)</f>
-        <v>3</v>
-      </c>
-      <c r="AD50" s="5">
-        <f t="shared" ref="AD50" si="8">SUM(AD3:AD49)</f>
-        <v>2</v>
-      </c>
-      <c r="AE50" s="5">
-        <f t="shared" ref="AE50" si="9">SUM(AE3:AE49)</f>
-        <v>2</v>
-      </c>
-      <c r="AF50" s="5">
-        <f t="shared" ref="AF50" si="10">SUM(AF3:AF49)</f>
-        <v>2</v>
-      </c>
-      <c r="AG50" s="5">
-        <f t="shared" ref="AG50" si="11">SUM(AG3:AG49)</f>
-        <v>2</v>
-      </c>
-      <c r="AH50" s="5">
-        <f t="shared" ref="AH50" si="12">SUM(AH3:AH49)</f>
-        <v>2</v>
-      </c>
-      <c r="AI50" s="5">
-        <f t="shared" ref="AI50" si="13">SUM(AI3:AI49)</f>
-        <v>2</v>
-      </c>
-      <c r="AJ50" s="5">
-        <f>SUM(AJ3:AJ49)</f>
-        <v>2</v>
-      </c>
-      <c r="AK50" s="5">
-        <f>SUM(AK3:AK49)</f>
-        <v>558</v>
-      </c>
+    <row r="50" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
       <c r="AL50" s="4"/>
       <c r="AM50" s="4"/>
       <c r="AN50" s="4"/>
@@ -9319,56 +9533,107 @@
       <c r="AZ50" s="4"/>
       <c r="BA50" s="4"/>
     </row>
-    <row r="51" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="C51" s="3"/>
+    <row r="51" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
+      <c r="AS51" s="4"/>
+      <c r="AT51" s="4"/>
+      <c r="AU51" s="4"/>
+      <c r="AV51" s="4"/>
+      <c r="AW51" s="4"/>
+      <c r="AX51" s="4"/>
+      <c r="AY51" s="4"/>
+      <c r="AZ51" s="4"/>
+      <c r="BA51" s="4"/>
     </row>
-    <row r="52" spans="2:53" ht="28" x14ac:dyDescent="0.3">
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="13"/>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
-      <c r="AC52" s="13"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="13"/>
-      <c r="AF52" s="13"/>
-      <c r="AG52" s="13"/>
-      <c r="AH52" s="13"/>
-      <c r="AI52" s="13"/>
-      <c r="AJ52" s="13"/>
-      <c r="AK52" s="13"/>
-      <c r="AL52" s="13"/>
-      <c r="AM52" s="13"/>
-      <c r="AN52" s="13"/>
-      <c r="AO52" s="13"/>
-      <c r="AP52" s="13"/>
-      <c r="AQ52" s="13"/>
-      <c r="AR52" s="13"/>
-      <c r="AS52" s="13"/>
-      <c r="AT52" s="13"/>
-      <c r="AU52" s="13"/>
+    <row r="52" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="9"/>
+      <c r="AJ52" s="9"/>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AS52" s="4"/>
+      <c r="AT52" s="4"/>
+      <c r="AU52" s="4"/>
       <c r="AV52" s="4"/>
       <c r="AW52" s="4"/>
       <c r="AX52" s="4"/>
@@ -9376,43 +9641,43 @@
       <c r="AZ52" s="4"/>
       <c r="BA52" s="4"/>
     </row>
-    <row r="53" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B53" s="4"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="4"/>
-      <c r="AH53" s="4"/>
-      <c r="AI53" s="4"/>
-      <c r="AJ53" s="4"/>
-      <c r="AK53" s="4"/>
+    <row r="53" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9"/>
+      <c r="AJ53" s="9"/>
+      <c r="AK53" s="9"/>
       <c r="AL53" s="4"/>
       <c r="AM53" s="4"/>
       <c r="AN53" s="4"/>
@@ -9430,43 +9695,195 @@
       <c r="AZ53" s="4"/>
       <c r="BA53" s="4"/>
     </row>
-    <row r="55" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B55" s="4"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="4"/>
-      <c r="AH55" s="4"/>
-      <c r="AI55" s="4"/>
-      <c r="AJ55" s="4"/>
-      <c r="AK55" s="4"/>
+    <row r="54" spans="2:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="9"/>
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="9"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="4"/>
+      <c r="AO54" s="4"/>
+      <c r="AP54" s="4"/>
+      <c r="AQ54" s="4"/>
+      <c r="AR54" s="4"/>
+      <c r="AS54" s="4"/>
+      <c r="AT54" s="4"/>
+      <c r="AU54" s="4"/>
+      <c r="AV54" s="4"/>
+      <c r="AW54" s="4"/>
+      <c r="AX54" s="4"/>
+      <c r="AY54" s="4"/>
+      <c r="AZ54" s="4"/>
+      <c r="BA54" s="4"/>
+    </row>
+    <row r="55" spans="2:53" ht="35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5">
+        <f>SUM(F3:F54)</f>
+        <v>558</v>
+      </c>
+      <c r="G55" s="5">
+        <f>SUM(G4:G54)</f>
+        <v>37</v>
+      </c>
+      <c r="H55" s="5">
+        <f t="shared" ref="H55:N55" si="0">SUM(H3:H54)</f>
+        <v>35</v>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K55" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L55" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M55" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="N55" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="O55" s="5">
+        <f t="shared" ref="O55:T55" si="1">SUM(O3:O54)</f>
+        <v>27</v>
+      </c>
+      <c r="P55" s="5">
+        <f>SUM(P3:P54)</f>
+        <v>27</v>
+      </c>
+      <c r="Q55" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R55" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="S55" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="T55" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="U55" s="5">
+        <f t="shared" ref="U55" si="2">SUM(U3:U54)</f>
+        <v>24</v>
+      </c>
+      <c r="V55" s="5">
+        <f t="shared" ref="V55" si="3">SUM(V3:V54)</f>
+        <v>16</v>
+      </c>
+      <c r="W55" s="5">
+        <f t="shared" ref="W55" si="4">SUM(W3:W54)</f>
+        <v>21</v>
+      </c>
+      <c r="X55" s="5">
+        <f t="shared" ref="X55" si="5">SUM(X3:X54)</f>
+        <v>16</v>
+      </c>
+      <c r="Y55" s="5">
+        <f t="shared" ref="Y55:Z55" si="6">SUM(Y3:Y54)</f>
+        <v>21</v>
+      </c>
+      <c r="Z55" s="5">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="AA55" s="5">
+        <f t="shared" ref="AA55" si="7">SUM(AA3:AA54)</f>
+        <v>13</v>
+      </c>
+      <c r="AB55" s="5">
+        <f>SUM(AB3:AB54)</f>
+        <v>8</v>
+      </c>
+      <c r="AC55" s="5">
+        <f t="shared" ref="AC55" si="8">SUM(AC3:AC54)</f>
+        <v>3</v>
+      </c>
+      <c r="AD55" s="5">
+        <f t="shared" ref="AD55" si="9">SUM(AD3:AD54)</f>
+        <v>2</v>
+      </c>
+      <c r="AE55" s="5">
+        <f t="shared" ref="AE55" si="10">SUM(AE3:AE54)</f>
+        <v>7</v>
+      </c>
+      <c r="AF55" s="5">
+        <f t="shared" ref="AF55" si="11">SUM(AF3:AF54)</f>
+        <v>2</v>
+      </c>
+      <c r="AG55" s="5">
+        <f t="shared" ref="AG55" si="12">SUM(AG3:AG54)</f>
+        <v>2</v>
+      </c>
+      <c r="AH55" s="5">
+        <f t="shared" ref="AH55" si="13">SUM(AH3:AH54)</f>
+        <v>7</v>
+      </c>
+      <c r="AI55" s="5">
+        <f t="shared" ref="AI55" si="14">SUM(AI3:AI54)</f>
+        <v>2</v>
+      </c>
+      <c r="AJ55" s="5">
+        <f>SUM(AJ3:AJ54)</f>
+        <v>2</v>
+      </c>
+      <c r="AK55" s="5">
+        <f>SUM(AK3:AK54)</f>
+        <v>808</v>
+      </c>
       <c r="AL55" s="4"/>
       <c r="AM55" s="4"/>
       <c r="AN55" s="4"/>
@@ -9484,62 +9901,56 @@
       <c r="AZ55" s="4"/>
       <c r="BA55" s="4"/>
     </row>
-    <row r="56" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C56" s="3"/>
-      <c r="AV56" s="4"/>
-      <c r="AW56" s="4"/>
-      <c r="AX56" s="4"/>
-      <c r="AY56" s="4"/>
-      <c r="AZ56" s="4"/>
-      <c r="BA56" s="4"/>
     </row>
-    <row r="57" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B57" s="4"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="4"/>
-      <c r="AH57" s="4"/>
-      <c r="AI57" s="4"/>
-      <c r="AJ57" s="4"/>
-      <c r="AK57" s="4"/>
-      <c r="AL57" s="4"/>
-      <c r="AM57" s="4"/>
-      <c r="AN57" s="4"/>
-      <c r="AO57" s="4"/>
-      <c r="AP57" s="4"/>
-      <c r="AQ57" s="4"/>
-      <c r="AR57" s="4"/>
-      <c r="AS57" s="4"/>
-      <c r="AT57" s="4"/>
-      <c r="AU57" s="4"/>
+    <row r="57" spans="2:53" ht="27" x14ac:dyDescent="0.5">
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="14"/>
+      <c r="AI57" s="14"/>
+      <c r="AJ57" s="14"/>
+      <c r="AK57" s="14"/>
+      <c r="AL57" s="14"/>
+      <c r="AM57" s="14"/>
+      <c r="AN57" s="14"/>
+      <c r="AO57" s="14"/>
+      <c r="AP57" s="14"/>
+      <c r="AQ57" s="14"/>
+      <c r="AR57" s="14"/>
+      <c r="AS57" s="14"/>
+      <c r="AT57" s="14"/>
+      <c r="AU57" s="14"/>
       <c r="AV57" s="4"/>
       <c r="AW57" s="4"/>
       <c r="AX57" s="4"/>
@@ -9547,7 +9958,7 @@
       <c r="AZ57" s="4"/>
       <c r="BA57" s="4"/>
     </row>
-    <row r="58" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="C58" s="1"/>
       <c r="D58" s="4"/>
@@ -9601,61 +10012,7 @@
       <c r="AZ58" s="4"/>
       <c r="BA58" s="4"/>
     </row>
-    <row r="59" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B59" s="4"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-      <c r="AG59" s="4"/>
-      <c r="AH59" s="4"/>
-      <c r="AI59" s="4"/>
-      <c r="AJ59" s="4"/>
-      <c r="AK59" s="4"/>
-      <c r="AL59" s="4"/>
-      <c r="AM59" s="4"/>
-      <c r="AN59" s="4"/>
-      <c r="AO59" s="4"/>
-      <c r="AP59" s="4"/>
-      <c r="AQ59" s="4"/>
-      <c r="AR59" s="4"/>
-      <c r="AS59" s="4"/>
-      <c r="AT59" s="4"/>
-      <c r="AU59" s="4"/>
-      <c r="AV59" s="4"/>
-      <c r="AW59" s="4"/>
-      <c r="AX59" s="4"/>
-      <c r="AY59" s="4"/>
-      <c r="AZ59" s="4"/>
-      <c r="BA59" s="4"/>
-    </row>
-    <row r="60" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B60" s="4"/>
       <c r="C60" s="1"/>
       <c r="D60" s="4"/>
@@ -9709,53 +10066,8 @@
       <c r="AZ60" s="4"/>
       <c r="BA60" s="4"/>
     </row>
-    <row r="61" spans="2:53" x14ac:dyDescent="0.15">
-      <c r="B61" s="4"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-      <c r="AG61" s="4"/>
-      <c r="AH61" s="4"/>
-      <c r="AI61" s="4"/>
-      <c r="AJ61" s="4"/>
-      <c r="AK61" s="4"/>
-      <c r="AL61" s="4"/>
-      <c r="AM61" s="4"/>
-      <c r="AN61" s="4"/>
-      <c r="AO61" s="4"/>
-      <c r="AP61" s="4"/>
-      <c r="AQ61" s="4"/>
-      <c r="AR61" s="4"/>
-      <c r="AS61" s="4"/>
-      <c r="AT61" s="4"/>
-      <c r="AU61" s="4"/>
+    <row r="61" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
       <c r="AV61" s="4"/>
       <c r="AW61" s="4"/>
       <c r="AX61" s="4"/>
@@ -9763,7 +10075,7 @@
       <c r="AZ61" s="4"/>
       <c r="BA61" s="4"/>
     </row>
-    <row r="62" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="1"/>
       <c r="D62" s="4"/>
@@ -9817,7 +10129,7 @@
       <c r="AZ62" s="4"/>
       <c r="BA62" s="4"/>
     </row>
-    <row r="63" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B63" s="4"/>
       <c r="C63" s="1"/>
       <c r="D63" s="4"/>
@@ -9871,7 +10183,7 @@
       <c r="AZ63" s="4"/>
       <c r="BA63" s="4"/>
     </row>
-    <row r="64" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B64" s="4"/>
       <c r="C64" s="1"/>
       <c r="D64" s="4"/>
@@ -9925,7 +10237,7 @@
       <c r="AZ64" s="4"/>
       <c r="BA64" s="4"/>
     </row>
-    <row r="65" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B65" s="4"/>
       <c r="C65" s="1"/>
       <c r="D65" s="4"/>
@@ -9979,7 +10291,7 @@
       <c r="AZ65" s="4"/>
       <c r="BA65" s="4"/>
     </row>
-    <row r="66" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B66" s="4"/>
       <c r="C66" s="1"/>
       <c r="D66" s="4"/>
@@ -10033,7 +10345,7 @@
       <c r="AZ66" s="4"/>
       <c r="BA66" s="4"/>
     </row>
-    <row r="67" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="1"/>
       <c r="D67" s="4"/>
@@ -10087,7 +10399,7 @@
       <c r="AZ67" s="4"/>
       <c r="BA67" s="4"/>
     </row>
-    <row r="68" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="1"/>
       <c r="D68" s="4"/>
@@ -10141,7 +10453,7 @@
       <c r="AZ68" s="4"/>
       <c r="BA68" s="4"/>
     </row>
-    <row r="69" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
       <c r="C69" s="1"/>
       <c r="D69" s="4"/>
@@ -10195,7 +10507,7 @@
       <c r="AZ69" s="4"/>
       <c r="BA69" s="4"/>
     </row>
-    <row r="70" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="C70" s="1"/>
       <c r="D70" s="4"/>
@@ -10249,7 +10561,7 @@
       <c r="AZ70" s="4"/>
       <c r="BA70" s="4"/>
     </row>
-    <row r="71" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="1"/>
       <c r="D71" s="4"/>
@@ -10303,7 +10615,7 @@
       <c r="AZ71" s="4"/>
       <c r="BA71" s="4"/>
     </row>
-    <row r="72" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
       <c r="D72" s="4"/>
@@ -10357,7 +10669,7 @@
       <c r="AZ72" s="4"/>
       <c r="BA72" s="4"/>
     </row>
-    <row r="73" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="1"/>
       <c r="D73" s="4"/>
@@ -10411,7 +10723,7 @@
       <c r="AZ73" s="4"/>
       <c r="BA73" s="4"/>
     </row>
-    <row r="74" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
       <c r="C74" s="1"/>
       <c r="D74" s="4"/>
@@ -10465,7 +10777,7 @@
       <c r="AZ74" s="4"/>
       <c r="BA74" s="4"/>
     </row>
-    <row r="75" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
       <c r="D75" s="4"/>
@@ -10519,7 +10831,7 @@
       <c r="AZ75" s="4"/>
       <c r="BA75" s="4"/>
     </row>
-    <row r="76" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="1"/>
       <c r="D76" s="4"/>
@@ -10573,7 +10885,7 @@
       <c r="AZ76" s="4"/>
       <c r="BA76" s="4"/>
     </row>
-    <row r="77" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="1"/>
       <c r="D77" s="4"/>
@@ -10627,7 +10939,7 @@
       <c r="AZ77" s="4"/>
       <c r="BA77" s="4"/>
     </row>
-    <row r="78" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
       <c r="C78" s="1"/>
       <c r="D78" s="4"/>
@@ -10681,7 +10993,7 @@
       <c r="AZ78" s="4"/>
       <c r="BA78" s="4"/>
     </row>
-    <row r="79" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
       <c r="C79" s="1"/>
       <c r="D79" s="4"/>
@@ -10735,7 +11047,7 @@
       <c r="AZ79" s="4"/>
       <c r="BA79" s="4"/>
     </row>
-    <row r="80" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="4"/>
@@ -10789,7 +11101,7 @@
       <c r="AZ80" s="4"/>
       <c r="BA80" s="4"/>
     </row>
-    <row r="81" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="1"/>
       <c r="D81" s="4"/>
@@ -10843,7 +11155,7 @@
       <c r="AZ81" s="4"/>
       <c r="BA81" s="4"/>
     </row>
-    <row r="82" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="1"/>
       <c r="D82" s="4"/>
@@ -10897,7 +11209,7 @@
       <c r="AZ82" s="4"/>
       <c r="BA82" s="4"/>
     </row>
-    <row r="83" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="4"/>
@@ -10951,7 +11263,7 @@
       <c r="AZ83" s="4"/>
       <c r="BA83" s="4"/>
     </row>
-    <row r="84" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="1"/>
       <c r="D84" s="4"/>
@@ -11005,7 +11317,7 @@
       <c r="AZ84" s="4"/>
       <c r="BA84" s="4"/>
     </row>
-    <row r="85" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="1"/>
       <c r="D85" s="4"/>
@@ -11059,7 +11371,7 @@
       <c r="AZ85" s="4"/>
       <c r="BA85" s="4"/>
     </row>
-    <row r="86" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="1"/>
       <c r="D86" s="4"/>
@@ -11113,7 +11425,7 @@
       <c r="AZ86" s="4"/>
       <c r="BA86" s="4"/>
     </row>
-    <row r="87" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="1"/>
       <c r="D87" s="4"/>
@@ -11167,7 +11479,7 @@
       <c r="AZ87" s="4"/>
       <c r="BA87" s="4"/>
     </row>
-    <row r="88" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="1"/>
       <c r="D88" s="4"/>
@@ -11221,7 +11533,7 @@
       <c r="AZ88" s="4"/>
       <c r="BA88" s="4"/>
     </row>
-    <row r="89" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
       <c r="D89" s="4"/>
@@ -11275,7 +11587,7 @@
       <c r="AZ89" s="4"/>
       <c r="BA89" s="4"/>
     </row>
-    <row r="90" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
       <c r="D90" s="4"/>
@@ -11329,7 +11641,7 @@
       <c r="AZ90" s="4"/>
       <c r="BA90" s="4"/>
     </row>
-    <row r="91" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4"/>
@@ -11383,7 +11695,7 @@
       <c r="AZ91" s="4"/>
       <c r="BA91" s="4"/>
     </row>
-    <row r="92" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4"/>
@@ -11437,7 +11749,7 @@
       <c r="AZ92" s="4"/>
       <c r="BA92" s="4"/>
     </row>
-    <row r="93" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
       <c r="D93" s="4"/>
@@ -11491,7 +11803,7 @@
       <c r="AZ93" s="4"/>
       <c r="BA93" s="4"/>
     </row>
-    <row r="94" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4"/>
@@ -11545,7 +11857,7 @@
       <c r="AZ94" s="4"/>
       <c r="BA94" s="4"/>
     </row>
-    <row r="95" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
       <c r="D95" s="4"/>
@@ -11599,7 +11911,7 @@
       <c r="AZ95" s="4"/>
       <c r="BA95" s="4"/>
     </row>
-    <row r="96" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
       <c r="D96" s="4"/>
@@ -11653,7 +11965,7 @@
       <c r="AZ96" s="4"/>
       <c r="BA96" s="4"/>
     </row>
-    <row r="97" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
       <c r="D97" s="4"/>
@@ -11707,7 +12019,7 @@
       <c r="AZ97" s="4"/>
       <c r="BA97" s="4"/>
     </row>
-    <row r="98" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
       <c r="D98" s="4"/>
@@ -11761,7 +12073,7 @@
       <c r="AZ98" s="4"/>
       <c r="BA98" s="4"/>
     </row>
-    <row r="99" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
       <c r="D99" s="4"/>
@@ -11815,7 +12127,7 @@
       <c r="AZ99" s="4"/>
       <c r="BA99" s="4"/>
     </row>
-    <row r="100" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
       <c r="D100" s="4"/>
@@ -11869,7 +12181,7 @@
       <c r="AZ100" s="4"/>
       <c r="BA100" s="4"/>
     </row>
-    <row r="101" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
       <c r="D101" s="4"/>
@@ -11923,7 +12235,7 @@
       <c r="AZ101" s="4"/>
       <c r="BA101" s="4"/>
     </row>
-    <row r="102" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
       <c r="D102" s="4"/>
@@ -11977,7 +12289,7 @@
       <c r="AZ102" s="4"/>
       <c r="BA102" s="4"/>
     </row>
-    <row r="103" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
       <c r="D103" s="4"/>
@@ -12031,7 +12343,7 @@
       <c r="AZ103" s="4"/>
       <c r="BA103" s="4"/>
     </row>
-    <row r="104" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4"/>
@@ -12085,7 +12397,7 @@
       <c r="AZ104" s="4"/>
       <c r="BA104" s="4"/>
     </row>
-    <row r="105" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
       <c r="D105" s="4"/>
@@ -12139,7 +12451,7 @@
       <c r="AZ105" s="4"/>
       <c r="BA105" s="4"/>
     </row>
-    <row r="106" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
       <c r="D106" s="4"/>
@@ -12193,7 +12505,7 @@
       <c r="AZ106" s="4"/>
       <c r="BA106" s="4"/>
     </row>
-    <row r="107" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
       <c r="D107" s="4"/>
@@ -12247,7 +12559,7 @@
       <c r="AZ107" s="4"/>
       <c r="BA107" s="4"/>
     </row>
-    <row r="108" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
       <c r="C108" s="1"/>
       <c r="D108" s="4"/>
@@ -12301,7 +12613,7 @@
       <c r="AZ108" s="4"/>
       <c r="BA108" s="4"/>
     </row>
-    <row r="109" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
       <c r="C109" s="1"/>
       <c r="D109" s="4"/>
@@ -12355,7 +12667,7 @@
       <c r="AZ109" s="4"/>
       <c r="BA109" s="4"/>
     </row>
-    <row r="110" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
       <c r="D110" s="4"/>
@@ -12409,7 +12721,7 @@
       <c r="AZ110" s="4"/>
       <c r="BA110" s="4"/>
     </row>
-    <row r="111" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4"/>
@@ -12463,7 +12775,7 @@
       <c r="AZ111" s="4"/>
       <c r="BA111" s="4"/>
     </row>
-    <row r="112" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
       <c r="D112" s="4"/>
@@ -12517,7 +12829,7 @@
       <c r="AZ112" s="4"/>
       <c r="BA112" s="4"/>
     </row>
-    <row r="113" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
       <c r="D113" s="4"/>
@@ -12571,7 +12883,7 @@
       <c r="AZ113" s="4"/>
       <c r="BA113" s="4"/>
     </row>
-    <row r="114" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4"/>
@@ -12625,7 +12937,7 @@
       <c r="AZ114" s="4"/>
       <c r="BA114" s="4"/>
     </row>
-    <row r="115" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
       <c r="D115" s="4"/>
@@ -12679,7 +12991,7 @@
       <c r="AZ115" s="4"/>
       <c r="BA115" s="4"/>
     </row>
-    <row r="116" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B116" s="4"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4"/>
@@ -12733,7 +13045,7 @@
       <c r="AZ116" s="4"/>
       <c r="BA116" s="4"/>
     </row>
-    <row r="117" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B117" s="4"/>
       <c r="C117" s="1"/>
       <c r="D117" s="4"/>
@@ -12787,7 +13099,7 @@
       <c r="AZ117" s="4"/>
       <c r="BA117" s="4"/>
     </row>
-    <row r="118" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
       <c r="D118" s="4"/>
@@ -12841,7 +13153,7 @@
       <c r="AZ118" s="4"/>
       <c r="BA118" s="4"/>
     </row>
-    <row r="119" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
       <c r="D119" s="4"/>
@@ -12895,7 +13207,7 @@
       <c r="AZ119" s="4"/>
       <c r="BA119" s="4"/>
     </row>
-    <row r="120" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
       <c r="D120" s="4"/>
@@ -12949,7 +13261,7 @@
       <c r="AZ120" s="4"/>
       <c r="BA120" s="4"/>
     </row>
-    <row r="121" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
       <c r="D121" s="4"/>
@@ -13003,7 +13315,7 @@
       <c r="AZ121" s="4"/>
       <c r="BA121" s="4"/>
     </row>
-    <row r="122" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
       <c r="D122" s="4"/>
@@ -13057,7 +13369,7 @@
       <c r="AZ122" s="4"/>
       <c r="BA122" s="4"/>
     </row>
-    <row r="123" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
       <c r="D123" s="4"/>
@@ -13111,7 +13423,7 @@
       <c r="AZ123" s="4"/>
       <c r="BA123" s="4"/>
     </row>
-    <row r="124" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B124" s="4"/>
       <c r="C124" s="1"/>
       <c r="D124" s="4"/>
@@ -13165,7 +13477,7 @@
       <c r="AZ124" s="4"/>
       <c r="BA124" s="4"/>
     </row>
-    <row r="125" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
       <c r="C125" s="1"/>
       <c r="D125" s="4"/>
@@ -13219,7 +13531,7 @@
       <c r="AZ125" s="4"/>
       <c r="BA125" s="4"/>
     </row>
-    <row r="126" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
       <c r="C126" s="1"/>
       <c r="D126" s="4"/>
@@ -13273,7 +13585,7 @@
       <c r="AZ126" s="4"/>
       <c r="BA126" s="4"/>
     </row>
-    <row r="127" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
       <c r="C127" s="1"/>
       <c r="D127" s="4"/>
@@ -13327,7 +13639,7 @@
       <c r="AZ127" s="4"/>
       <c r="BA127" s="4"/>
     </row>
-    <row r="128" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B128" s="4"/>
       <c r="C128" s="1"/>
       <c r="D128" s="4"/>
@@ -13381,7 +13693,7 @@
       <c r="AZ128" s="4"/>
       <c r="BA128" s="4"/>
     </row>
-    <row r="129" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B129" s="4"/>
       <c r="C129" s="1"/>
       <c r="D129" s="4"/>
@@ -13435,7 +13747,7 @@
       <c r="AZ129" s="4"/>
       <c r="BA129" s="4"/>
     </row>
-    <row r="130" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
       <c r="D130" s="4"/>
@@ -13489,7 +13801,7 @@
       <c r="AZ130" s="4"/>
       <c r="BA130" s="4"/>
     </row>
-    <row r="131" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
       <c r="D131" s="4"/>
@@ -13543,7 +13855,7 @@
       <c r="AZ131" s="4"/>
       <c r="BA131" s="4"/>
     </row>
-    <row r="132" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B132" s="4"/>
       <c r="C132" s="1"/>
       <c r="D132" s="4"/>
@@ -13597,7 +13909,7 @@
       <c r="AZ132" s="4"/>
       <c r="BA132" s="4"/>
     </row>
-    <row r="133" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B133" s="4"/>
       <c r="C133" s="1"/>
       <c r="D133" s="4"/>
@@ -13651,7 +13963,7 @@
       <c r="AZ133" s="4"/>
       <c r="BA133" s="4"/>
     </row>
-    <row r="134" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B134" s="4"/>
       <c r="C134" s="1"/>
       <c r="D134" s="4"/>
@@ -13705,7 +14017,7 @@
       <c r="AZ134" s="4"/>
       <c r="BA134" s="4"/>
     </row>
-    <row r="135" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B135" s="4"/>
       <c r="C135" s="1"/>
       <c r="D135" s="4"/>
@@ -13759,7 +14071,7 @@
       <c r="AZ135" s="4"/>
       <c r="BA135" s="4"/>
     </row>
-    <row r="136" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B136" s="4"/>
       <c r="C136" s="1"/>
       <c r="D136" s="4"/>
@@ -13813,7 +14125,7 @@
       <c r="AZ136" s="4"/>
       <c r="BA136" s="4"/>
     </row>
-    <row r="137" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B137" s="4"/>
       <c r="C137" s="1"/>
       <c r="D137" s="4"/>
@@ -13867,7 +14179,7 @@
       <c r="AZ137" s="4"/>
       <c r="BA137" s="4"/>
     </row>
-    <row r="138" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
       <c r="C138" s="1"/>
       <c r="D138" s="4"/>
@@ -13921,7 +14233,7 @@
       <c r="AZ138" s="4"/>
       <c r="BA138" s="4"/>
     </row>
-    <row r="139" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
       <c r="C139" s="1"/>
       <c r="D139" s="4"/>
@@ -13975,7 +14287,7 @@
       <c r="AZ139" s="4"/>
       <c r="BA139" s="4"/>
     </row>
-    <row r="140" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
       <c r="C140" s="1"/>
       <c r="D140" s="4"/>
@@ -14029,7 +14341,7 @@
       <c r="AZ140" s="4"/>
       <c r="BA140" s="4"/>
     </row>
-    <row r="141" spans="2:53" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
       <c r="C141" s="1"/>
       <c r="D141" s="4"/>
@@ -14083,14 +14395,287 @@
       <c r="AZ141" s="4"/>
       <c r="BA141" s="4"/>
     </row>
+    <row r="142" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="4"/>
+      <c r="S142" s="4"/>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="4"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
+      <c r="Z142" s="4"/>
+      <c r="AA142" s="4"/>
+      <c r="AB142" s="4"/>
+      <c r="AC142" s="4"/>
+      <c r="AD142" s="4"/>
+      <c r="AE142" s="4"/>
+      <c r="AF142" s="4"/>
+      <c r="AG142" s="4"/>
+      <c r="AH142" s="4"/>
+      <c r="AI142" s="4"/>
+      <c r="AJ142" s="4"/>
+      <c r="AK142" s="4"/>
+      <c r="AL142" s="4"/>
+      <c r="AM142" s="4"/>
+      <c r="AN142" s="4"/>
+      <c r="AO142" s="4"/>
+      <c r="AP142" s="4"/>
+      <c r="AQ142" s="4"/>
+      <c r="AR142" s="4"/>
+      <c r="AS142" s="4"/>
+      <c r="AT142" s="4"/>
+      <c r="AU142" s="4"/>
+      <c r="AV142" s="4"/>
+      <c r="AW142" s="4"/>
+      <c r="AX142" s="4"/>
+      <c r="AY142" s="4"/>
+      <c r="AZ142" s="4"/>
+      <c r="BA142" s="4"/>
+    </row>
+    <row r="143" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4"/>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
+      <c r="Z143" s="4"/>
+      <c r="AA143" s="4"/>
+      <c r="AB143" s="4"/>
+      <c r="AC143" s="4"/>
+      <c r="AD143" s="4"/>
+      <c r="AE143" s="4"/>
+      <c r="AF143" s="4"/>
+      <c r="AG143" s="4"/>
+      <c r="AH143" s="4"/>
+      <c r="AI143" s="4"/>
+      <c r="AJ143" s="4"/>
+      <c r="AK143" s="4"/>
+      <c r="AL143" s="4"/>
+      <c r="AM143" s="4"/>
+      <c r="AN143" s="4"/>
+      <c r="AO143" s="4"/>
+      <c r="AP143" s="4"/>
+      <c r="AQ143" s="4"/>
+      <c r="AR143" s="4"/>
+      <c r="AS143" s="4"/>
+      <c r="AT143" s="4"/>
+      <c r="AU143" s="4"/>
+      <c r="AV143" s="4"/>
+      <c r="AW143" s="4"/>
+      <c r="AX143" s="4"/>
+      <c r="AY143" s="4"/>
+      <c r="AZ143" s="4"/>
+      <c r="BA143" s="4"/>
+    </row>
+    <row r="144" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
+      <c r="Z144" s="4"/>
+      <c r="AA144" s="4"/>
+      <c r="AB144" s="4"/>
+      <c r="AC144" s="4"/>
+      <c r="AD144" s="4"/>
+      <c r="AE144" s="4"/>
+      <c r="AF144" s="4"/>
+      <c r="AG144" s="4"/>
+      <c r="AH144" s="4"/>
+      <c r="AI144" s="4"/>
+      <c r="AJ144" s="4"/>
+      <c r="AK144" s="4"/>
+      <c r="AL144" s="4"/>
+      <c r="AM144" s="4"/>
+      <c r="AN144" s="4"/>
+      <c r="AO144" s="4"/>
+      <c r="AP144" s="4"/>
+      <c r="AQ144" s="4"/>
+      <c r="AR144" s="4"/>
+      <c r="AS144" s="4"/>
+      <c r="AT144" s="4"/>
+      <c r="AU144" s="4"/>
+      <c r="AV144" s="4"/>
+      <c r="AW144" s="4"/>
+      <c r="AX144" s="4"/>
+      <c r="AY144" s="4"/>
+      <c r="AZ144" s="4"/>
+      <c r="BA144" s="4"/>
+    </row>
+    <row r="145" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
+      <c r="R145" s="4"/>
+      <c r="S145" s="4"/>
+      <c r="T145" s="4"/>
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
+      <c r="Z145" s="4"/>
+      <c r="AA145" s="4"/>
+      <c r="AB145" s="4"/>
+      <c r="AC145" s="4"/>
+      <c r="AD145" s="4"/>
+      <c r="AE145" s="4"/>
+      <c r="AF145" s="4"/>
+      <c r="AG145" s="4"/>
+      <c r="AH145" s="4"/>
+      <c r="AI145" s="4"/>
+      <c r="AJ145" s="4"/>
+      <c r="AK145" s="4"/>
+      <c r="AL145" s="4"/>
+      <c r="AM145" s="4"/>
+      <c r="AN145" s="4"/>
+      <c r="AO145" s="4"/>
+      <c r="AP145" s="4"/>
+      <c r="AQ145" s="4"/>
+      <c r="AR145" s="4"/>
+      <c r="AS145" s="4"/>
+      <c r="AT145" s="4"/>
+      <c r="AU145" s="4"/>
+      <c r="AV145" s="4"/>
+      <c r="AW145" s="4"/>
+      <c r="AX145" s="4"/>
+      <c r="AY145" s="4"/>
+      <c r="AZ145" s="4"/>
+      <c r="BA145" s="4"/>
+    </row>
+    <row r="146" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
+      <c r="Z146" s="4"/>
+      <c r="AA146" s="4"/>
+      <c r="AB146" s="4"/>
+      <c r="AC146" s="4"/>
+      <c r="AD146" s="4"/>
+      <c r="AE146" s="4"/>
+      <c r="AF146" s="4"/>
+      <c r="AG146" s="4"/>
+      <c r="AH146" s="4"/>
+      <c r="AI146" s="4"/>
+      <c r="AJ146" s="4"/>
+      <c r="AK146" s="4"/>
+      <c r="AL146" s="4"/>
+      <c r="AM146" s="4"/>
+      <c r="AN146" s="4"/>
+      <c r="AO146" s="4"/>
+      <c r="AP146" s="4"/>
+      <c r="AQ146" s="4"/>
+      <c r="AR146" s="4"/>
+      <c r="AS146" s="4"/>
+      <c r="AT146" s="4"/>
+      <c r="AU146" s="4"/>
+      <c r="AV146" s="4"/>
+      <c r="AW146" s="4"/>
+      <c r="AX146" s="4"/>
+      <c r="AY146" s="4"/>
+      <c r="AZ146" s="4"/>
+      <c r="BA146" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:AU1"/>
-    <mergeCell ref="B52:AU52"/>
+    <mergeCell ref="B57:AU57"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13 D15:D24 D26:D34" xr:uid="{B485209D-D562-8B43-8347-1B37E0BD34B5}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D13 D15:D24 D26:D34 D36:D44" xr:uid="{B485209D-D562-8B43-8347-1B37E0BD34B5}">
       <formula1>$R$6:$R$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E36:E44" xr:uid="{46AD00B0-0D11-4162-8049-4E8B596A90C3}">
+      <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
